--- a/pullup_challenge.xlsx
+++ b/pullup_challenge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\amyris.local\users\jwalker\Documents\pullup_challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pullup_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Kevin G.</t>
   </si>
   <si>
-    <t>Isabel R.</t>
-  </si>
-  <si>
     <t>Adam N.</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>5/3/2017</t>
+  </si>
+  <si>
+    <t>Tom S.</t>
   </si>
 </sst>
 </file>
@@ -213,18 +213,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,11 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:Y26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:Y25"/>
   <tableColumns count="25">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="group"/>
@@ -568,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,76 +584,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -668,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -745,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -822,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -899,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -976,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1049,26 +1042,26 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1077,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1092,31 +1085,31 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1133,19 +1126,19 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1154,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1169,31 +1162,31 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1204,25 +1197,25 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1284,28 +1277,28 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1314,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1323,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1358,40 +1351,40 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1400,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1426,8 +1419,11 @@
       <c r="W11">
         <v>0</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
       <c r="Y11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1435,31 +1431,31 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1504,84 +1500,84 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>27</v>
+      </c>
+      <c r="P13">
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+      <c r="R13">
+        <v>80</v>
+      </c>
+      <c r="S13">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1589,76 +1585,76 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1666,37 +1662,37 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1708,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1735,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1743,37 +1739,37 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1785,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1812,15 +1808,15 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -1829,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1850,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1871,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1894,31 +1890,31 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1948,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1971,64 +1967,64 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2037,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2051,43 +2047,43 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2099,28 +2095,28 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S20">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="W20">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2128,76 +2124,76 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
       <c r="D21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>37</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>22</v>
       </c>
-      <c r="J21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>23</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>134</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>20</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>37</v>
-      </c>
-      <c r="S21">
-        <v>41</v>
-      </c>
-      <c r="T21">
-        <v>50</v>
-      </c>
       <c r="U21">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="V21">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="W21">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Y21">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2205,43 +2201,43 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
         <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>37</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -2250,31 +2246,31 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="U22">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="Y22">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2282,76 +2278,76 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>12</v>
       </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
       <c r="J23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2359,28 +2355,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2433,25 +2429,25 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2505,83 +2501,6 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
         <v>0</v>
       </c>
     </row>
